--- a/COSTOS_INDIRECTOS_DE_ESTUDIO_PROF_2025_COMPLETO.xlsx
+++ b/COSTOS_INDIRECTOS_DE_ESTUDIO_PROF_2025_COMPLETO.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7A348A-6456-4289-8E2C-763DBECE1CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COSTOS INDIRECTOS 2025" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Detalle</t>
   </si>
@@ -48,81 +62,27 @@
     <t>1.4 Luz (semifijo)</t>
   </si>
   <si>
-    <t>1.8 Impuesto tasas y servicios (fijo)</t>
-  </si>
-  <si>
     <t>2.- MUEBLES</t>
   </si>
   <si>
-    <t>2.1 Escritorios (8 unidades) /10 años</t>
-  </si>
-  <si>
-    <t>2.2 Sillas ergonómicas (8 unidades) /10 años</t>
-  </si>
-  <si>
-    <t>2.4 Sillón /10 años</t>
-  </si>
-  <si>
-    <t>2.5 Mesa de reunión /10 años</t>
-  </si>
-  <si>
-    <t>2.7 Armarios /10 años</t>
-  </si>
-  <si>
-    <t>2.8 Percheros /10 años</t>
-  </si>
-  <si>
-    <t>2.9 Lámparas /10 años</t>
-  </si>
-  <si>
     <t>3.- EQUIPAMIENTO</t>
   </si>
   <si>
-    <t>3.1 PCs (8) + Impresora /3 años</t>
-  </si>
-  <si>
-    <t>3.2 Módem /3 años</t>
-  </si>
-  <si>
-    <t>3.3 Router /3 años</t>
-  </si>
-  <si>
-    <t>3.4 NAS /5 años</t>
-  </si>
-  <si>
-    <t>3.5 Servidor VPS /3 años</t>
-  </si>
-  <si>
     <t>3.6 Internet (semifijo)</t>
   </si>
   <si>
-    <t>3.7 Suscripción Técnica (fijo)</t>
-  </si>
-  <si>
     <t>3.8 Licencias de software (fijo)</t>
   </si>
   <si>
     <t>3.9 Antivirus y seguridad (fijo)</t>
   </si>
   <si>
-    <t>3.10 Dominio y hosting web (fijo)</t>
-  </si>
-  <si>
-    <t>3.11 Backup en la nube (fijo)</t>
-  </si>
-  <si>
     <t>4.- MATERIALES INDIRECTOS</t>
   </si>
   <si>
     <t>4.1 Útiles - lápices, carpetas, papel, copias, cartuchos (semifijo)</t>
   </si>
   <si>
-    <t>4.2 Snacks, agua, café (semifijo)</t>
-  </si>
-  <si>
-    <t>4.3 Capacitación y formación (fijo)</t>
-  </si>
-  <si>
     <t>TOTALES</t>
   </si>
   <si>
@@ -132,45 +92,6 @@
     <t>TOTAL MENSUAL:</t>
   </si>
   <si>
-    <t>creo que ok</t>
-  </si>
-  <si>
-    <t>me mataste x2</t>
-  </si>
-  <si>
-    <t>monotributo para el jefe de proyecto</t>
-  </si>
-  <si>
-    <t>seguro de vida para cada uno</t>
-  </si>
-  <si>
-    <t>20 al mes son pocas facturas, no se si tendriamos que tener esto kajskdjasd</t>
-  </si>
-  <si>
-    <t>seguro para incendio o robo</t>
-  </si>
-  <si>
-    <t>esto tenemos que calcular con el excel de la profe me parece</t>
-  </si>
-  <si>
-    <t>idem arriba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASTOS PRFEsIONALeS </t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>ok pero a revosar precio capaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ok </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.- LOCAL </t>
   </si>
   <si>
@@ -186,33 +107,78 @@
     <t xml:space="preserve">5.3 seguro robo e incendios </t>
   </si>
   <si>
-    <t>4.3 Papelería e impresiones (semifijo)</t>
-  </si>
-  <si>
     <t>COSTO FIJO DEL PROYECTO</t>
   </si>
   <si>
     <t>COSTO FIJO DIARIO</t>
   </si>
   <si>
-    <t>1.11 Pava eléctrica (fijo)</t>
-  </si>
-  <si>
     <t>6.- Mano de obra indirecta</t>
   </si>
   <si>
     <t>6.1 secretaria-4 hs diarias</t>
+  </si>
+  <si>
+    <t>1.5 Impuesto tasas y servicios (fijo)</t>
+  </si>
+  <si>
+    <t>4.2 Papelería e impresiones (semifijo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5 Servidor VPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4 NAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 Router </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 Módem </t>
+  </si>
+  <si>
+    <t>3.1 PCs (8) + Impresora</t>
+  </si>
+  <si>
+    <t>2.2 Sillas ergonómicas (8 unidades)</t>
+  </si>
+  <si>
+    <t>2.1 Escritorios (8 unidades)</t>
+  </si>
+  <si>
+    <t>7.- Rodado</t>
+  </si>
+  <si>
+    <t>6.2 emp de limpieza (2 veces por semana)</t>
+  </si>
+  <si>
+    <t>7.1 Combustible</t>
+  </si>
+  <si>
+    <t>3.7 Suscripción ChatGpt PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3 Mesa de reunión </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4 Percheros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 Lámparas </t>
+  </si>
+  <si>
+    <t>3.10 Backup en la nube (fijo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +206,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -333,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,14 +314,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -365,8 +340,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -669,22 +646,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,16 +678,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -720,11 +697,11 @@
         <v>7200000</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E8" si="0">D3/12</f>
+        <f t="shared" ref="E3:E7" si="0">D3/12</f>
         <v>600000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -738,7 +715,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -752,7 +729,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -765,13 +742,10 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -782,653 +756,497 @@
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3">
-        <v>240000</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:D13" si="1">IF(AND(B9&gt;0,C9&gt;0),B9/C9,0)</f>
+        <v>120000</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ref="E9:E13" si="2">D9/12</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3">
-        <v>1200000</v>
+        <v>640000</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D16" si="1">IF(AND(B10&gt;0,C10&gt;0),B10/C10,0)</f>
-        <v>120000</v>
+        <f t="shared" si="1"/>
+        <v>64000</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ref="E10:E16" si="2">D10/12</f>
-        <v>10000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>5333.333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3">
-        <v>640000</v>
+        <v>400000</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>64000</v>
+        <v>40000</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
-        <v>5333.333333333333</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3333.3333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>1666.6666666666667</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>666.66666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3">
-        <v>400000</v>
+        <v>120000</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="1"/>
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3">
-        <v>250000</v>
-      </c>
-      <c r="C14" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>25000</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="2"/>
-        <v>2083.3333333333335</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3">
-        <v>80000</v>
+        <v>6700000</v>
       </c>
       <c r="C15" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="1"/>
-        <v>8000</v>
+        <f>IF(AND(B15&gt;0,C15&gt;0),B15/C15,0)</f>
+        <v>2233333.3333333335</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="2"/>
-        <v>666.66666666666663</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E15:E24" si="3">D15/12</f>
+        <v>186111.11111111112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="C16" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>12000</v>
+        <f>IF(AND(B16&gt;0,C16&gt;0),B16/C16,0)</f>
+        <v>13333.333333333334</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1111.1111111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>96000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <f>IF(AND(B17&gt;0,C17&gt;0),B17/C17,0)</f>
+        <v>32000</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="3"/>
+        <v>2666.6666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3">
-        <v>6700000</v>
+        <v>1000000</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
         <f>IF(AND(B18&gt;0,C18&gt;0),B18/C18,0)</f>
-        <v>2233333.3333333335</v>
+        <v>200000</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" ref="E18:E28" si="3">D18/12</f>
-        <v>186111.11111111112</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>16666.666666666668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3">
-        <v>40000</v>
+        <v>450000</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
       <c r="D19" s="3">
         <f>IF(AND(B19&gt;0,C19&gt;0),B19/C19,0)</f>
-        <v>13333.333333333334</v>
+        <v>150000</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="3"/>
-        <v>1111.1111111111111</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3">
-        <v>96000</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="3">
-        <f>IF(AND(B20&gt;0,C20&gt;0),B20/C20,0)</f>
-        <v>32000</v>
+        <v>1200000</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="3"/>
-        <v>2666.6666666666665</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3">
-        <v>300000</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="3">
-        <f>IF(AND(B21&gt;0,C21&gt;0),B21/C21,0)</f>
-        <v>60000</v>
+        <v>264000</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3">
-        <v>450000</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="3">
-        <f>IF(AND(B22&gt;0,C22&gt;0),B22/C22,0)</f>
-        <v>150000</v>
+        <v>1200000</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="3"/>
-        <v>12500</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3">
-        <v>1200000</v>
+        <v>240000</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3">
-        <v>480000</v>
+        <v>300000</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="3"/>
-        <v>40000</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3">
-        <v>240000</v>
+        <v>630000</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <f>D26/12</f>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3">
-        <v>180000</v>
+        <v>350000</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="3"/>
-        <v>15000</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3">
-        <v>300000</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
-      <c r="F28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3"/>
+        <f>D27/12</f>
+        <v>29166.666666666668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="9">
+        <v>440000</v>
+      </c>
+      <c r="E29" s="9">
+        <f>D29/12</f>
+        <v>36666.666666666664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2">
+        <v>300</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="3">
-        <v>600000</v>
-      </c>
-      <c r="E30" s="3">
-        <f>D30/12</f>
-        <v>50000</v>
-      </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="3"/>
+      <c r="D30" s="9">
+        <f>(B30*8)*12</f>
+        <v>28800</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" ref="E30:E31" si="4">D30/12</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="3">
-        <v>180000</v>
-      </c>
-      <c r="E31" s="3">
-        <f>D31/12</f>
-        <v>15000</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3">
-        <v>240000</v>
-      </c>
-      <c r="E33" s="3">
-        <f>D33/12</f>
-        <v>20000</v>
-      </c>
-      <c r="F33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="15">
-        <v>440000</v>
-      </c>
-      <c r="E35" s="16">
-        <f>D35/12</f>
-        <v>36666.666666666664</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="2">
-        <v>300</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="15">
-        <f>(B36*8)*12</f>
-        <v>28800</v>
-      </c>
-      <c r="E36" s="16">
-        <f t="shared" ref="E36:E37" si="4">D36/12</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="15">
+      <c r="D31" s="9">
         <v>120000</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E31" s="9">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
-        <v>3840000</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3">
-        <v>600000</v>
-      </c>
-      <c r="E41" s="3">
-        <f>D41/12</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="6">
-        <f>SUM(D2:D42)</f>
-        <v>22411666.666666668</v>
-      </c>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="6">
-        <f>SUM(E2:E42)</f>
-        <v>1547638.888888889</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7">
-        <f>E44/30</f>
-        <v>51587.962962962964</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46">
-        <v>46.25</v>
-      </c>
-      <c r="E46" s="8">
-        <f>D46*E45</f>
-        <v>2385943.2870370368</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9">
+        <v>4000000</v>
+      </c>
+      <c r="E33" s="9">
+        <f>D33/12</f>
+        <v>333333.33333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9">
+        <v>100000</v>
+      </c>
+      <c r="E34" s="9">
+        <f>D34/12</f>
+        <v>8333.3333333333339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>42</v>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9">
+        <v>200000</v>
+      </c>
+      <c r="E36" s="9">
+        <f>D36/12</f>
+        <v>16666.666666666668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5">
+        <f>SUM(D2:D37)</f>
+        <v>21690666.666666668</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="5">
+        <f>SUM(E2:E37)</f>
+        <v>1807555.5555555557</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <f>E39/30</f>
+        <v>60251.851851851861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>42.75</v>
+      </c>
+      <c r="E41" s="7">
+        <f>D41*E40</f>
+        <v>2575766.666666667</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A38:E38"/>
+  <mergeCells count="8">
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A35:E35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/COSTOS_INDIRECTOS_DE_ESTUDIO_PROF_2025_COMPLETO.xlsx
+++ b/COSTOS_INDIRECTOS_DE_ESTUDIO_PROF_2025_COMPLETO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7A348A-6456-4289-8E2C-763DBECE1CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE0135-3C71-4351-8741-349F9E3F6708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Detalle</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>3.10 Backup en la nube (fijo)</t>
+  </si>
+  <si>
+    <t>(8 empleados)</t>
   </si>
 </sst>
 </file>
@@ -647,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,6 +662,7 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -736,11 +740,11 @@
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
-        <v>960000</v>
+        <v>3600000</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>80000</v>
+        <f>D6/12</f>
+        <v>300000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -750,11 +754,11 @@
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3">
-        <v>25200</v>
+        <v>360000</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -908,7 +912,7 @@
         <v>1111.1111111111111</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -927,7 +931,7 @@
         <v>2666.6666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -946,7 +950,7 @@
         <v>16666.666666666668</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -965,7 +969,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -979,7 +983,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -993,7 +997,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1048,7 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>29166.666666666668</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>20</v>
       </c>
@@ -1081,38 +1085,40 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9">
-        <v>440000</v>
+        <v>1355000</v>
       </c>
       <c r="E29" s="9">
         <f>D29/12</f>
-        <v>36666.666666666664</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112916.66666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="2">
-        <v>300</v>
+      <c r="B30" s="9">
+        <v>2700</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="9">
-        <f>(B30*8)*12</f>
-        <v>28800</v>
+        <v>259200</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" ref="E30:E31" si="4">D30/12</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21600</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>23</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>26</v>
       </c>
@@ -1156,11 +1162,11 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9">
-        <v>100000</v>
+        <v>1370000</v>
       </c>
       <c r="E34" s="9">
         <f>D34/12</f>
-        <v>8333.3333333333339</v>
+        <v>114166.66666666667</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1179,11 +1185,11 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9">
-        <v>200000</v>
+        <v>2160000</v>
       </c>
       <c r="E36" s="9">
         <f>D36/12</f>
-        <v>16666.666666666668</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1201,7 +1207,7 @@
       </c>
       <c r="D38" s="5">
         <f>SUM(D2:D37)</f>
-        <v>21690666.666666668</v>
+        <v>29040866.666666668</v>
       </c>
       <c r="E38" s="6"/>
     </row>
@@ -1212,7 +1218,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="5">
         <f>SUM(E2:E37)</f>
-        <v>1807555.5555555557</v>
+        <v>2420072.2222222225</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1222,7 +1228,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6">
         <f>E39/30</f>
-        <v>60251.851851851861</v>
+        <v>80669.074074074088</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1234,7 +1240,7 @@
       </c>
       <c r="E41" s="7">
         <f>D41*E40</f>
-        <v>2575766.666666667</v>
+        <v>3448602.9166666674</v>
       </c>
     </row>
   </sheetData>
